--- a/testdata/Кв-емкость.xlsx
+++ b/testdata/Кв-емкость.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">На входе:</t>
   </si>
@@ -83,6 +83,135 @@
   </si>
   <si>
     <t>423-429кв,436-442кв</t>
+  </si>
+  <si>
+    <t>512кв,518-521кв,527-530кв,536-539кв</t>
+  </si>
+  <si>
+    <t>484-485кв,491-494кв,500-503кв,509-511кв</t>
+  </si>
+  <si>
+    <t>457-461кв,469-474кв,482-483кв</t>
+  </si>
+  <si>
+    <t>430-435кв,443-448кв,456кв</t>
+  </si>
+  <si>
+    <t>523-526кв,531-535кв,540-544кв</t>
+  </si>
+  <si>
+    <t>497-499кв,504-508кв,513-517кв,522кв</t>
+  </si>
+  <si>
+    <t>475-481кв,486-490кв,495-496кв</t>
+  </si>
+  <si>
+    <t>512кв,512-521кв,512-530кв,518-521кв,518-530кв,527-530кв</t>
+  </si>
+  <si>
+    <t>484-485кв,484-494кв,484-503кв,491-494кв,491-503кв,500-503кв</t>
+  </si>
+  <si>
+    <t>457-461кв,457-474кв,469-474кв</t>
+  </si>
+  <si>
+    <t>430-435кв,430-448кв,443-448кв</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>523-526кв,523-535кв,531-535кв</t>
+  </si>
+  <si>
+    <t>497-499кв,497-508кв,497-517кв,504-508кв,504-517кв,513-517кв</t>
+  </si>
+  <si>
+    <t>475-481кв,475-490кв,486-490кв</t>
+  </si>
+  <si>
+    <t>449-455кв</t>
+  </si>
+  <si>
+    <t>423-429кв</t>
+  </si>
+  <si>
+    <t>512кв,518-521кв,527-530кв,518-521кв,527-530кв,527-530кв</t>
+  </si>
+  <si>
+    <t>484-485кв,491-494кв,500-503кв,491-494кв,500-503кв,500-503кв</t>
+  </si>
+  <si>
+    <t>457-461кв,469-474кв,469-474кв</t>
+  </si>
+  <si>
+    <t>430-435кв,443-448кв,443-448кв</t>
+  </si>
+  <si>
+    <t>523-526кв,531-535кв,531-535кв</t>
+  </si>
+  <si>
+    <t>497-499кв,504-508кв,513-517кв,504-508кв,513-517кв,513-517кв</t>
+  </si>
+  <si>
+    <t>475-481кв,486-490кв,486-490кв</t>
+  </si>
+  <si>
+    <t>512кв,518-521кв,527-530кв,518-530кв,527-539кв,527-539кв</t>
+  </si>
+  <si>
+    <t>484-485кв,491-494кв,500-503кв,491-503кв,500-511кв,500-511кв</t>
+  </si>
+  <si>
+    <t>457-461кв,469-474кв,469-483кв</t>
+  </si>
+  <si>
+    <t>430-435кв,443-448кв,443-456кв</t>
+  </si>
+  <si>
+    <t>523-526кв,531-535кв,531-544кв</t>
+  </si>
+  <si>
+    <t>497-499кв,504-508кв,513-517кв,504-517кв,513-522кв,513-522кв</t>
+  </si>
+  <si>
+    <t>475-481кв,486-490кв,486-496кв</t>
+  </si>
+  <si>
+    <t>512кв,518-521кв,527-530кв</t>
+  </si>
+  <si>
+    <t>484-485кв,491-494кв,500-503кв</t>
+  </si>
+  <si>
+    <t>457-461кв,469-474кв</t>
+  </si>
+  <si>
+    <t>430-435кв,443-448кв</t>
+  </si>
+  <si>
+    <t>523-526кв,531-535кв</t>
+  </si>
+  <si>
+    <t>497-499кв,504-508кв,513-517кв</t>
+  </si>
+  <si>
+    <t>475-481кв,486-490кв</t>
+  </si>
+  <si>
+    <t>484-485кв,491-494кв,500-503кв,508-511кв</t>
+  </si>
+  <si>
+    <t>457-461кв,469-474кв,480-483кв</t>
+  </si>
+  <si>
+    <t>430-435кв,443-448кв,451-456кв</t>
+  </si>
+  <si>
+    <t>497-499кв,504-508кв,513-522кв</t>
+  </si>
+  <si>
+    <t>475-481кв,486-490кв,492-496кв</t>
   </si>
 </sst>
 </file>
@@ -730,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -745,13 +874,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -760,13 +889,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -775,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
         <v>8</v>

--- a/testdata/Кв-емкость.xlsx
+++ b/testdata/Кв-емкость.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">На входе:</t>
   </si>
@@ -212,6 +212,63 @@
   </si>
   <si>
     <t>475-481кв,486-490кв,492-496кв</t>
+  </si>
+  <si>
+    <t>512,518-521,527-530,536-539</t>
+  </si>
+  <si>
+    <t>484-485,491-494,500-503,509-511</t>
+  </si>
+  <si>
+    <t>457-461,469-474,482-483</t>
+  </si>
+  <si>
+    <t>430-435,443-448,456</t>
+  </si>
+  <si>
+    <t>417-422</t>
+  </si>
+  <si>
+    <t>523-526,531-535,540-544</t>
+  </si>
+  <si>
+    <t>497-499,504-508,513-517,522</t>
+  </si>
+  <si>
+    <t>475-481,486-490,495-496</t>
+  </si>
+  <si>
+    <t>449-455,462-468</t>
+  </si>
+  <si>
+    <t>423-429,436-442</t>
+  </si>
+  <si>
+    <t>512,518-521,527-530,536-539кв</t>
+  </si>
+  <si>
+    <t>484-485,491-494,500-503,509-511кв</t>
+  </si>
+  <si>
+    <t>457-461,469-474,482-483кв</t>
+  </si>
+  <si>
+    <t>430-435,443-448,456кв</t>
+  </si>
+  <si>
+    <t>523-526,531-535,540-544кв</t>
+  </si>
+  <si>
+    <t>497-499,504-508,513-517,522кв</t>
+  </si>
+  <si>
+    <t>475-481,486-490,495-496кв</t>
+  </si>
+  <si>
+    <t>449-455,462-468кв</t>
+  </si>
+  <si>
+    <t>423-429,436-442кв</t>
   </si>
 </sst>
 </file>
@@ -583,8 +640,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3203125" defaultRowHeight="15" customHeight="true"/>
   <cols>
-    <col customWidth="true" max="2" min="2" style="5" width="39"/>
-    <col customWidth="true" max="4" min="4" style="5" width="35"/>
+    <col customWidth="true" max="2" min="2" style="5" width="33"/>
+    <col customWidth="true" max="4" min="4" style="5" width="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -859,13 +916,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -874,13 +931,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C21" t="n">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -889,13 +946,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -904,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C23" t="n">
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -925,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3"/>
     </row>
